--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H2">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>7174.815415461376</v>
+        <v>7736.481301398348</v>
       </c>
       <c r="R2">
-        <v>7174.815415461376</v>
+        <v>69628.33171258513</v>
       </c>
       <c r="S2">
-        <v>0.1741018088645717</v>
+        <v>0.173025951708469</v>
       </c>
       <c r="T2">
-        <v>0.1741018088645717</v>
+        <v>0.1730259517084689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H3">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>7637.171740113201</v>
+        <v>8154.537877723024</v>
       </c>
       <c r="R3">
-        <v>7637.171740113201</v>
+        <v>73390.84089950722</v>
       </c>
       <c r="S3">
-        <v>0.1853212016713038</v>
+        <v>0.1823757625809501</v>
       </c>
       <c r="T3">
-        <v>0.1853212016713038</v>
+        <v>0.1823757625809501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H4">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>4924.639089078853</v>
+        <v>5268.55805294813</v>
       </c>
       <c r="R4">
-        <v>4924.639089078853</v>
+        <v>47417.02247653318</v>
       </c>
       <c r="S4">
-        <v>0.1194997395425915</v>
+        <v>0.1178309926345844</v>
       </c>
       <c r="T4">
-        <v>0.1194997395425915</v>
+        <v>0.1178309926345844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H5">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>3818.459118586136</v>
+        <v>4109.343631496375</v>
       </c>
       <c r="R5">
-        <v>3818.459118586136</v>
+        <v>36984.09268346737</v>
       </c>
       <c r="S5">
-        <v>0.0926575251244306</v>
+        <v>0.09190522991482974</v>
       </c>
       <c r="T5">
-        <v>0.0926575251244306</v>
+        <v>0.09190522991482973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H6">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>2524.376018745347</v>
+        <v>2822.846378891073</v>
       </c>
       <c r="R6">
-        <v>2524.376018745347</v>
+        <v>25405.61741001965</v>
       </c>
       <c r="S6">
-        <v>0.06125571260980641</v>
+        <v>0.06313279412258796</v>
       </c>
       <c r="T6">
-        <v>0.06125571260980641</v>
+        <v>0.06313279412258795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H7">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>1829.047963444335</v>
+        <v>1847.607899969415</v>
       </c>
       <c r="R7">
-        <v>1829.047963444335</v>
+        <v>16628.47109972473</v>
       </c>
       <c r="S7">
-        <v>0.04438310123623471</v>
+        <v>0.04132164259461363</v>
       </c>
       <c r="T7">
-        <v>0.04438310123623471</v>
+        <v>0.04132164259461361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H8">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>1946.914674296247</v>
+        <v>1947.447168360335</v>
       </c>
       <c r="R8">
-        <v>1946.914674296247</v>
+        <v>17527.02451524301</v>
       </c>
       <c r="S8">
-        <v>0.04724321768188069</v>
+        <v>0.04355454199140965</v>
       </c>
       <c r="T8">
-        <v>0.04724321768188069</v>
+        <v>0.04355454199140964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H9">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>1255.419209415134</v>
+        <v>1258.224391793594</v>
       </c>
       <c r="R9">
-        <v>1255.419209415134</v>
+        <v>11324.01952614234</v>
       </c>
       <c r="S9">
-        <v>0.03046360673913592</v>
+        <v>0.02814011491419832</v>
       </c>
       <c r="T9">
-        <v>0.03046360673913592</v>
+        <v>0.02814011491419832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H10">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>973.4250248856484</v>
+        <v>981.3835853089171</v>
       </c>
       <c r="R10">
-        <v>973.4250248856484</v>
+        <v>8832.452267780252</v>
       </c>
       <c r="S10">
-        <v>0.02362082476176623</v>
+        <v>0.02194858647282623</v>
       </c>
       <c r="T10">
-        <v>0.02362082476176623</v>
+        <v>0.02194858647282623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H11">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>643.529421830706</v>
+        <v>674.1453985155388</v>
       </c>
       <c r="R11">
-        <v>643.529421830706</v>
+        <v>6067.308586639848</v>
       </c>
       <c r="S11">
-        <v>0.01561568206435778</v>
+        <v>0.01507722239914843</v>
       </c>
       <c r="T11">
-        <v>0.01561568206435778</v>
+        <v>0.01507722239914843</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H12">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>22.19201235654076</v>
+        <v>39.36569285729733</v>
       </c>
       <c r="R12">
-        <v>22.19201235654076</v>
+        <v>354.291235715676</v>
       </c>
       <c r="S12">
-        <v>0.0005385043753589332</v>
+        <v>0.0008804114177935166</v>
       </c>
       <c r="T12">
-        <v>0.0005385043753589332</v>
+        <v>0.0008804114177935165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H13">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>23.62210033450978</v>
+        <v>41.492898513129</v>
       </c>
       <c r="R13">
-        <v>23.62210033450978</v>
+        <v>373.436086618161</v>
       </c>
       <c r="S13">
-        <v>0.0005732064393679028</v>
+        <v>0.0009279862478410456</v>
       </c>
       <c r="T13">
-        <v>0.0005732064393679028</v>
+        <v>0.0009279862478410454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H14">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>15.2321202968974</v>
+        <v>26.80810953110033</v>
       </c>
       <c r="R14">
-        <v>15.2321202968974</v>
+        <v>241.272985779903</v>
       </c>
       <c r="S14">
-        <v>0.0003696178288876662</v>
+        <v>0.0005995618013430882</v>
       </c>
       <c r="T14">
-        <v>0.0003696178288876662</v>
+        <v>0.0005995618013430882</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H15">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>11.81065811951068</v>
+        <v>20.90965555792634</v>
       </c>
       <c r="R15">
-        <v>11.81065811951068</v>
+        <v>188.186900021337</v>
       </c>
       <c r="S15">
-        <v>0.0002865937063769915</v>
+        <v>0.0004676432233026343</v>
       </c>
       <c r="T15">
-        <v>0.0002865937063769915</v>
+        <v>0.0004676432233026342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H16">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>7.808003489515487</v>
+        <v>14.36354580404333</v>
       </c>
       <c r="R16">
-        <v>7.808003489515487</v>
+        <v>129.27191223639</v>
       </c>
       <c r="S16">
-        <v>0.0001894665510441035</v>
+        <v>0.0003212398616155873</v>
       </c>
       <c r="T16">
-        <v>0.0001894665510441035</v>
+        <v>0.0003212398616155872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H17">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>2311.503713522505</v>
+        <v>31.41763968134933</v>
       </c>
       <c r="R17">
-        <v>2311.503713522505</v>
+        <v>282.758757132144</v>
       </c>
       <c r="S17">
-        <v>0.05609022036360835</v>
+        <v>0.000702653673488059</v>
       </c>
       <c r="T17">
-        <v>0.05609022036360835</v>
+        <v>0.0007026536734880589</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H18">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>2460.460627326898</v>
+        <v>33.115356042276</v>
       </c>
       <c r="R18">
-        <v>2460.460627326898</v>
+        <v>298.038204380484</v>
       </c>
       <c r="S18">
-        <v>0.05970476187227813</v>
+        <v>0.0007406230005808913</v>
       </c>
       <c r="T18">
-        <v>0.05970476187227813</v>
+        <v>0.0007406230005808912</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H19">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>1586.566466592765</v>
+        <v>21.39547064088133</v>
       </c>
       <c r="R19">
-        <v>1586.566466592765</v>
+        <v>192.559235767932</v>
       </c>
       <c r="S19">
-        <v>0.03849912168087599</v>
+        <v>0.0004785084492119147</v>
       </c>
       <c r="T19">
-        <v>0.03849912168087599</v>
+        <v>0.0004785084492119147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H20">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>1230.189478258256</v>
+        <v>16.68793247362533</v>
       </c>
       <c r="R20">
-        <v>1230.189478258256</v>
+        <v>150.191392262628</v>
       </c>
       <c r="S20">
-        <v>0.02985139003707086</v>
+        <v>0.0003732246335002181</v>
       </c>
       <c r="T20">
-        <v>0.02985139003707086</v>
+        <v>0.000373224633500218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.191908</v>
+      </c>
+      <c r="H21">
+        <v>0.575724</v>
+      </c>
+      <c r="I21">
+        <v>0.002551390312817814</v>
+      </c>
+      <c r="J21">
+        <v>0.002551390312817813</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>11.46350219857333</v>
+      </c>
+      <c r="R21">
+        <v>103.17151978716</v>
+      </c>
+      <c r="S21">
+        <v>0.0002563805560367306</v>
+      </c>
+      <c r="T21">
+        <v>0.0002563805560367306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H22">
+        <v>48.726854</v>
+      </c>
+      <c r="I22">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J22">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>2659.056669129158</v>
+      </c>
+      <c r="R22">
+        <v>23931.51002216242</v>
+      </c>
+      <c r="S22">
+        <v>0.05946964684573913</v>
+      </c>
+      <c r="T22">
+        <v>0.05946964684573912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H23">
+        <v>48.726854</v>
+      </c>
+      <c r="I23">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J23">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>2802.744229926146</v>
+      </c>
+      <c r="R23">
+        <v>25224.69806933531</v>
+      </c>
+      <c r="S23">
+        <v>0.06268321073699724</v>
+      </c>
+      <c r="T23">
+        <v>0.06268321073699723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H24">
+        <v>48.726854</v>
+      </c>
+      <c r="I24">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J24">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>1810.822502066113</v>
+      </c>
+      <c r="R24">
+        <v>16297.40251859502</v>
+      </c>
+      <c r="S24">
+        <v>0.04049893932251458</v>
+      </c>
+      <c r="T24">
+        <v>0.04049893932251458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="H21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="I21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="J21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q21">
-        <v>813.2759107757201</v>
-      </c>
-      <c r="R21">
-        <v>813.2759107757201</v>
-      </c>
-      <c r="S21">
-        <v>0.01973469684905194</v>
-      </c>
-      <c r="T21">
-        <v>0.01973469684905194</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H25">
+        <v>48.726854</v>
+      </c>
+      <c r="I25">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J25">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>1412.396303096971</v>
+      </c>
+      <c r="R25">
+        <v>12711.56672787274</v>
+      </c>
+      <c r="S25">
+        <v>0.03158816069117951</v>
+      </c>
+      <c r="T25">
+        <v>0.03158816069117951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H26">
+        <v>48.726854</v>
+      </c>
+      <c r="I26">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J26">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>970.2225336420954</v>
+      </c>
+      <c r="R26">
+        <v>8732.002802778858</v>
+      </c>
+      <c r="S26">
+        <v>0.02169897020523825</v>
+      </c>
+      <c r="T26">
+        <v>0.02169897020523825</v>
       </c>
     </row>
   </sheetData>
